--- a/biology/Zoologie/Pompilites_fasciatus/Pompilites_fasciatus.xlsx
+++ b/biology/Zoologie/Pompilites_fasciatus/Pompilites_fasciatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pompilus fasciatus
 Pompilites fasciatus est une espèce fossile d'insectes Hyménoptères de la super-famille des Vespoidea, de la famille des Pompilidae et du genre Pompilites.
@@ -512,13 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pompilites fasciatus est décrite en 1937 par le paléontologue français Nicolas Théobald dans sa thèse, sous le protonyme Pompilus fasciatus[1],[2]. 
-Fossiles
-L'holotype Am11 appartient à la collection du muséum national d'histoire naturelle de Paris et vient du gypse d'Aix-en-Provence[1],[3].
-Étymologie
-L'épithète spécifique fasciatus signifie en latin « bandé ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pompilites fasciatus est décrite en 1937 par le paléontologue français Nicolas Théobald dans sa thèse, sous le protonyme Pompilus fasciatus,. 
 </t>
         </is>
       </c>
@@ -544,18 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte bien conservé, tête et thorax noirs, abdomen brun, ailes fortement enfumées dans la même longueur que le thorax, segmentation effacée. Pattes longues, tibias éperonnés. Tarses à cinq articles ciliés. Ailes bien étalées ; stigma étroit et long ; cellule radiale large ; trois cellules cubitales, les deuxième et troisième à peu près égales ; la 3troisième subtrapézoïdale, la deuxième en forme de parallélogramme (v. fig.). »[1].
-Dimensions
-L'holotype a une longueur totale de 6,75 mm[1].
-Affinités
-« La nervation, la forme du corps l'attribuent à la famille des Pompilidae. Il se rapproche de Pompilus orientalis Cam. du Bengale, mais la tache sombre de l'aile est plus étendue, la coloration de l'abdomen diffère aussi. »[4]
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype Am11 appartient à la collection du muséum national d'histoire naturelle de Paris et vient du gypse d'Aix-en-Provence,.
 </t>
         </is>
       </c>
@@ -581,12 +591,165 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique fasciatus signifie en latin « bandé ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pompilites_fasciatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pompilites_fasciatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte bien conservé, tête et thorax noirs, abdomen brun, ailes fortement enfumées dans la même longueur que le thorax, segmentation effacée. Pattes longues, tibias éperonnés. Tarses à cinq articles ciliés. Ailes bien étalées ; stigma étroit et long ; cellule radiale large ; trois cellules cubitales, les deuxième et troisième à peu près égales ; la 3troisième subtrapézoïdale, la deuxième en forme de parallélogramme (v. fig.). ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pompilites_fasciatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pompilites_fasciatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype a une longueur totale de 6,75 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pompilites_fasciatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pompilites_fasciatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« La nervation, la forme du corps l'attribuent à la famille des Pompilidae. Il se rapproche de Pompilus orientalis Cam. du Bengale, mais la tache sombre de l'aile est plus étendue, la coloration de l'abdomen diffère aussi. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pompilites_fasciatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pompilites_fasciatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Les Pompiles chassent les Araignées. Ces dernières sont aussi représentées dans la faune d'Aix »[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Les Pompiles chassent les Araignées. Ces dernières sont aussi représentées dans la faune d'Aix ».
 </t>
         </is>
       </c>
